--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
@@ -52,93 +55,102 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -148,43 +160,43 @@
     <t>good</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
+    <t>right</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>’</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>…</t>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -767,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
         <v>40</v>
       </c>
-      <c r="K7">
-        <v>0.82</v>
-      </c>
-      <c r="L7">
-        <v>41</v>
-      </c>
       <c r="M7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.7017543859649122</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,16 +950,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.6333333333333333</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5733333333333334</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7777777777777778</v>
+        <v>0.675</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.3684210526315789</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.2592592592592592</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,37 +1229,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.1818181818181818</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L16">
         <v>8</v>
@@ -1309,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1463414634146341</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1359,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.09230769230769231</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.08450704225352113</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,10 +1482,10 @@
         <v>0.5</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.08287795992714025</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L20">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1007</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4855072463768116</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.01536491677336748</v>
+        <v>0.0883424408014572</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>769</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4347826086956522</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.01296296296296296</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>533</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4230769230769231</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.01204819277108434</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1659,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>656</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1667,13 +1679,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.375</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1685,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.00576036866359447</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1709,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1726</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1717,25 +1729,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="L25">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>9</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>15</v>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1743,13 +1779,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3617021276595745</v>
+        <v>0.375</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1761,7 +1797,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26">
+        <v>0.004032258064516129</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1729</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1769,13 +1829,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.358974358974359</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1787,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1795,13 +1855,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3428571428571429</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1813,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1821,13 +1881,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1839,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1847,13 +1907,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1538461538461539</v>
+        <v>0.25</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1865,7 +1925,59 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
